--- a/branches/dev_v2/Brewery/Other/Brewery Parts.xlsx
+++ b/branches/dev_v2/Brewery/Other/Brewery Parts.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Part</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Mash Tun</t>
-  </si>
-  <si>
-    <t>How do we reverse the flow?</t>
   </si>
   <si>
     <t>Chimney</t>
@@ -256,18 +253,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -287,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +576,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -689,13 +680,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -709,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -723,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -751,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -765,7 +756,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -779,13 +770,13 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
         <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -813,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -830,7 +821,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -844,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -852,13 +843,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30">
@@ -872,7 +863,7 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>38</v>
@@ -892,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
@@ -909,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>38</v>
@@ -929,14 +920,12 @@
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21">
@@ -949,14 +938,12 @@
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22">
@@ -989,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>38</v>
